--- a/biology/Microbiologie/Alcaligenaceae/Alcaligenaceae.xlsx
+++ b/biology/Microbiologie/Alcaligenaceae/Alcaligenaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alcaligenaceae sont une famille de bactéries de l'ordre des Burkholderiales. Comme les autres Proteobactéries, les Alcaligenaceae sont des bactéries à coloration Gram négative. Presque tous les membres de cette famille sont aérobies et chimiorganotrophes. Certaines espèces sont capables d'utiliser différents accepteurs terminaux de l'oxydation. Ainsi certains genres de cette famille sont-ils capables de se développer en environnement anaérobie (par exemple certaines souches de l'espèce Alcaligenes faecalis). Dans ces conditions les nitrates peuvent être utilisés comme accepteur électronique final (dénitrification). Des nombreuses espèces utilisent des acides organiques et différents acides aminés comme source de carbone. Souvent ces bactéries sont mobiles grâce à des flagelles péritriches.
 Cette famille compte quelques espèces pathogènes.
@@ -512,16 +524,87 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Alcaligenaceae De Ley et al. 1986[2].
-Le genre type est : Alcaligenes Castellani &amp; Chalmers 1919[2].
-Alcaligenaceae a pour synonyme[2] :
-Achromobacteraceae Breed et al. 1957
-Étymologie
-L'étymologie du nom de cette famille est la suivante : N.L. masc. n. Alcaligenes, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Alcaligenaceae, la famille de Alcaligenes[2].
-Liste des genres
-Les genres de cette famille sont[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Alcaligenaceae De Ley et al. 1986.
+Le genre type est : Alcaligenes Castellani &amp; Chalmers 1919.
+Alcaligenaceae a pour synonyme :
+Achromobacteraceae Breed et al. 1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alcaligenaceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcaligenaceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de cette famille est la suivante : N.L. masc. n. Alcaligenes, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Alcaligenaceae, la famille de Alcaligenes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alcaligenaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcaligenaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les genres de cette famille sont :
 Achromobacter Yabuuchi and Yano 1981 emend. Yabuuchi et al. 1998
 Advenella Coenye et al. 2005
 Alcaligenes Castellani and Chalmers 1919
@@ -563,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alcaligenaceae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alcaligenaceae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) J. De Ley, P. Segers, K. Kersters, W. Mannheim et A. Lievens, « Intra- and Intergeneric Similarities of the Bordetella Ribosomal Ribonucleic Acid Cistrons: Proposal for a New Family, Alcaligenaceae », International Journal of Systematic Bacteriology, vol. 36, no 3,‎ 1er juillet 1986, p. 405–414 (ISSN 0020-7713, 1465-2102 et 1070-6259, DOI 10.1099/00207713-36-3-405, lire en ligne)</t>
         </is>
